--- a/biology/Zoologie/Auchenorrhyncha/Auchenorrhyncha.xlsx
+++ b/biology/Zoologie/Auchenorrhyncha/Auchenorrhyncha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Auchenorrhyncha (les Auchénorrhynques ou Auchénorrhynches) est un sous-ordre d'insectes hémiptères subdivisé en 2 infra-ordres, Cicadomorpha (comprenant entre autres les cigales) et Fulgoromorpha (comprenant les cicadelles).
-Beaucoup d'Auchénorrhynques, comme beaucoup d'insectes et plus généralement d'arthropodes sont en régression (jusque dans les réserves naturelle en Europe)[1].  
+Beaucoup d'Auchénorrhynques, comme beaucoup d'insectes et plus généralement d'arthropodes sont en régression (jusque dans les réserves naturelle en Europe).  
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Opisthognathes
 Origine du rostre jusqu'à la tête
@@ -550,7 +564,9 @@
           <t>Organe du son</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet organe possède presque la même structure chez tous les Auchenorrhyncha. Il se trouve uniquement chez les mâles, avec des exceptions cependant. Il est plus connu chez les Cicadoidea, chez qui cet organe peut émettre des sons atteignant 112 db. Mais chez de nombreuses espèces de ce groupe, le son émis n'est pas audible pour l'oreille humaine.
 </t>
@@ -581,7 +597,9 @@
           <t>Nourriture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces insectes piqueurs-suceurs peuvent consommer de la sève du xylème (Cercopoidea et Cicadoidea) ou du phloème (Fulgoroidea et Membracoidea).
 </t>
@@ -612,7 +630,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Sexuelle, ovipare
 Rencontre d’un individu du sexe opposé grâce au « chant/vibration » spécifique
@@ -644,7 +664,9 @@
           <t>Infra-ordres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Selon ITIS :
 Cicadomorpha
